--- a/conta/main/tests/data/plantilla_vacia.xlsx
+++ b/conta/main/tests/data/plantilla_vacia.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Nextcloud\Programacion\GitHub\contabilidad\conta\main\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61866BC3-2EAA-4C94-BD10-33B5C0C2A2E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E37BF3-9362-4EED-8A63-B6053F87CA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple" sheetId="3" r:id="rId1"/>
     <sheet name="compleja" sheetId="2" r:id="rId2"/>
-    <sheet name="Cuentas" sheetId="4" r:id="rId3"/>
+    <sheet name="cuentas" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Fecha</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>Cenas, pinchos…</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>balance</t>
   </si>
 </sst>
 </file>
@@ -1567,11 +1573,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{447D7112-259D-4C0C-AF28-055C99274BD5}" name="Cuentas" displayName="Cuentas" ref="F4:G17" totalsRowShown="0">
-  <autoFilter ref="F4:G17" xr:uid="{6F18564F-6990-4186-B512-9E1C6E9F5F3A}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{447D7112-259D-4C0C-AF28-055C99274BD5}" name="Cuentas" displayName="Cuentas" ref="A1:C14" totalsRowShown="0">
+  <autoFilter ref="A1:C14" xr:uid="{6F18564F-6990-4186-B512-9E1C6E9F5F3A}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{9DE84074-E3ED-46A0-8037-CE36B265F541}" name="Cuenta" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{C60FC6EA-5DD3-4D2E-A6C5-929976B15FC4}" name="Descripción"/>
+    <tableColumn id="3" xr3:uid="{D7CCBF35-2BA0-4128-B05F-78ACE1FD2914}" name="Tipo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1954,7 +1961,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5C23EA-5D97-488D-B298-E89BE659774C}">
-  <dimension ref="B3:P18"/>
+  <dimension ref="B3:Q18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -1974,7 +1981,7 @@
     <col min="16" max="16" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -2012,7 +2019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="D4" s="5"/>
       <c r="E4" s="10"/>
@@ -2028,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J5" s="4" t="s">
         <v>33</v>
       </c>
@@ -2044,109 +2051,148 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O6" t="str" cm="1">
-        <f t="array" ref="O6:P18">_xlfn._xlws.FILTER(Cuentas[],(ISNUMBER(SEARCH(P3,Cuentas[Descripción]))))</f>
+        <f t="array" ref="O6:Q18">_xlfn._xlws.FILTER(Cuentas[],(ISNUMBER(SEARCH(P3,Cuentas[Descripción]))))</f>
         <v>100</v>
       </c>
       <c r="P6" t="str">
         <v>Caja</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q6" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O7" t="str">
         <v>101</v>
       </c>
       <c r="P7" t="str">
         <v>Tickets restaurant</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q7" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O8" t="str">
         <v>1101</v>
       </c>
       <c r="P8" t="str">
         <v>Cuenta nómina</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q8" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O9" t="str">
         <v>1110</v>
       </c>
       <c r="P9" t="str">
         <v>Cuenta ahorro</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q9" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O10" t="str">
         <v>1200</v>
       </c>
       <c r="P10" t="str">
         <v>Tarjeta Visa</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q10" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O11" t="str">
         <v>1201</v>
       </c>
       <c r="P11" t="str">
         <v>Tarjeta Amex</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q11" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O12" t="str">
         <v>1210</v>
       </c>
       <c r="P12" t="str">
         <v>Tarjeta prepago</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q12" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O13" t="str">
         <v>300</v>
       </c>
       <c r="P13" t="str">
         <v>Comida</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q13" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O14" t="str">
         <v>312</v>
       </c>
       <c r="P14" t="str">
         <v>Cenas, pinchos…</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q14" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O15" t="str">
         <v>324</v>
       </c>
       <c r="P15" t="str">
         <v>Gastos coche</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q15" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O16" t="str">
         <v>15</v>
       </c>
       <c r="P16" t="str">
         <v>Hipoteca</v>
       </c>
-    </row>
-    <row r="17" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="Q16" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="17" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O17" t="str">
         <v>2001</v>
       </c>
       <c r="P17" t="str">
         <v>Gas casa</v>
       </c>
-    </row>
-    <row r="18" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="Q17" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="18" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O18" t="str">
         <v>2000</v>
       </c>
       <c r="P18" t="str">
         <v>Electricidad casa</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>balance</v>
       </c>
     </row>
   </sheetData>
@@ -2165,216 +2211,304 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77992459-7EBD-4FF8-A263-AD3B398FEA90}">
-  <dimension ref="B2:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="str" cm="1">
-        <f t="array" ref="B5:C17">_xlfn._xlws.FILTER(Cuentas[],(ISNUMBER(SEARCH(C2,Cuentas[Descripción]))))</f>
+      <c r="G3" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="str" cm="1">
+        <f t="array" ref="E4:G16">_xlfn._xlws.FILTER(Cuentas[],(ISNUMBER(SEARCH(F1,Cuentas[Descripción]))))</f>
         <v>100</v>
       </c>
-      <c r="C5" t="str">
+      <c r="F4" t="str">
         <v>Caja</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="str">
+      <c r="G4" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="str">
         <v>101</v>
       </c>
-      <c r="C6" t="str">
+      <c r="F5" t="str">
         <v>Tickets restaurant</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="str">
+      <c r="G5" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="str">
         <v>1101</v>
       </c>
-      <c r="C7" t="str">
+      <c r="F6" t="str">
         <v>Cuenta nómina</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" t="str">
+      <c r="G6" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="str">
         <v>1110</v>
       </c>
-      <c r="C8" t="str">
+      <c r="F7" t="str">
         <v>Cuenta ahorro</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="str">
+      <c r="G7" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="str">
         <v>1200</v>
       </c>
-      <c r="C9" t="str">
+      <c r="F8" t="str">
         <v>Tarjeta Visa</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G8" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="str">
+        <v>1201</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Tarjeta Amex</v>
+      </c>
+      <c r="G9" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="str">
+        <v>1210</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Tarjeta prepago</v>
+      </c>
+      <c r="G10" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="str">
+        <v>300</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Comida</v>
+      </c>
+      <c r="G11" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="str">
+        <v>312</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Cenas, pinchos…</v>
+      </c>
+      <c r="G12" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="str">
+        <v>324</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Gastos coche</v>
+      </c>
+      <c r="G13" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="str">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" t="str">
-        <v>1201</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Tarjeta Amex</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" t="str">
-        <v>1210</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Tarjeta prepago</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" t="str">
-        <v>300</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Comida</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" t="str">
-        <v>312</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Cenas, pinchos…</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" t="str">
-        <v>324</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Gastos coche</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" t="str">
-        <v>15</v>
-      </c>
-      <c r="C15" t="str">
+      <c r="F14" t="str">
         <v>Hipoteca</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" t="str">
+      <c r="G14" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E15" t="str">
         <v>2001</v>
       </c>
-      <c r="C16" t="str">
+      <c r="F15" t="str">
         <v>Gas casa</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" t="str">
+      <c r="G15" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16" t="str">
         <v>2000</v>
       </c>
-      <c r="C17" t="str">
+      <c r="F16" t="str">
         <v>Electricidad casa</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
+      <c r="G16" t="str">
+        <v>balance</v>
       </c>
     </row>
   </sheetData>
